--- a/REPORT/EmployeeReport.xlsx
+++ b/REPORT/EmployeeReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XtiaN\Documents\RBRS GADGET CENTER\InventoryMate_RBRS\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDFD5A3-83BF-4F0A-A8C9-7071E6C03132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E388CC01-D885-4615-B0F2-BA672820B27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9705" windowHeight="7845" xr2:uid="{4B46F896-65C5-4833-BDB2-F46BE8EEBDC7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9705" windowHeight="7845" xr2:uid="{FF227B24-5186-4822-8E96-225280716B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D1EB0-5FF5-4DC0-90FC-1CF1CEA78B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150C6A94-04F5-42CA-88EE-1BAF82AAFB7A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
